--- a/medicines_data (3).xlsx
+++ b/medicines_data (3).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84338\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Hocki7\PRN221\Project\Github\PRN221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878255D5-1727-4752-9827-E4A181AF7679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AD2974-0053-4A06-A162-D2978D5162CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>CountryId</t>
+  </si>
+  <si>
+    <t>Descript</t>
+  </si>
+  <si>
+    <t>abcdef</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +448,7 @@
     <col min="9" max="9" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +476,11 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -498,6 +507,9 @@
       </c>
       <c r="I2">
         <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
